--- a/data/referee-performance.xlsx
+++ b/data/referee-performance.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="fasta-method-1" sheetId="1" r:id="rId1"/>
+    <sheet name="fasta-method-2" sheetId="2" r:id="rId2"/>
+    <sheet name="fasta-method-3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
   <si>
     <t>Num procs</t>
   </si>
@@ -34,18 +34,6 @@
   </si>
   <si>
     <t>Virtual memory usage</t>
-  </si>
-  <si>
-    <t>Index reference fasta</t>
-  </si>
-  <si>
-    <t>Calculate scores</t>
-  </si>
-  <si>
-    <t>Fill unmapped positions</t>
-  </si>
-  <si>
-    <t>End program</t>
   </si>
 </sst>
 </file>
@@ -384,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,164 +408,47 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -585,26 +456,45 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/referee-performance.xlsx
+++ b/data/referee-performance.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12912"/>
   </bookViews>
   <sheets>
     <sheet name="fasta-method-1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="17">
   <si>
     <t>Num procs</t>
   </si>
@@ -34,6 +39,39 @@
   </si>
   <si>
     <t>Virtual memory usage</t>
+  </si>
+  <si>
+    <t>Index ref fasta</t>
+  </si>
+  <si>
+    <t>Calcs</t>
+  </si>
+  <si>
+    <t>File 1</t>
+  </si>
+  <si>
+    <t>Add unmapped 1</t>
+  </si>
+  <si>
+    <t>End program</t>
+  </si>
+  <si>
+    <t>File 0</t>
+  </si>
+  <si>
+    <t>Split files</t>
+  </si>
+  <si>
+    <t>Merge files</t>
+  </si>
+  <si>
+    <t>File 2</t>
+  </si>
+  <si>
+    <t>File 3</t>
+  </si>
+  <si>
+    <t>File 4</t>
   </si>
 </sst>
 </file>
@@ -80,6 +118,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -128,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -163,7 +204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,23 +413,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,6 +447,350 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -415,23 +800,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,6 +834,866 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>3.7097930908200002E-4</v>
+      </c>
+      <c r="D2">
+        <v>3.7097930908200002E-4</v>
+      </c>
+      <c r="E2">
+        <v>17.69921875</v>
+      </c>
+      <c r="F2">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>188.14811492000001</v>
+      </c>
+      <c r="D3">
+        <v>188.14848589900001</v>
+      </c>
+      <c r="E3">
+        <v>112.43359375</v>
+      </c>
+      <c r="F3">
+        <v>257.2734375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1705.8528160999999</v>
+      </c>
+      <c r="D4">
+        <v>1894.0013019999999</v>
+      </c>
+      <c r="E4">
+        <v>112.5625</v>
+      </c>
+      <c r="F4">
+        <v>257.2734375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1705.8549380300001</v>
+      </c>
+      <c r="D5">
+        <v>1894.0034239300001</v>
+      </c>
+      <c r="E5">
+        <v>112.5625</v>
+      </c>
+      <c r="F5">
+        <v>257.2734375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>428.535593033</v>
+      </c>
+      <c r="D6">
+        <v>2322.53901696</v>
+      </c>
+      <c r="E6">
+        <v>112.56640625</v>
+      </c>
+      <c r="F6">
+        <v>257.2734375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>3.4093856811500002E-4</v>
+      </c>
+      <c r="D8">
+        <v>3.4093856811500002E-4</v>
+      </c>
+      <c r="E8">
+        <v>17.6953125</v>
+      </c>
+      <c r="F8">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>149.994071007</v>
+      </c>
+      <c r="D9">
+        <v>149.994411945</v>
+      </c>
+      <c r="E9">
+        <v>112.59375</v>
+      </c>
+      <c r="F9">
+        <v>257.33203125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>7.1089267730700002E-3</v>
+      </c>
+      <c r="D10">
+        <v>150.00152087199999</v>
+      </c>
+      <c r="E10">
+        <v>112.59375</v>
+      </c>
+      <c r="F10">
+        <v>257.33203125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1184.8154439899999</v>
+      </c>
+      <c r="D11">
+        <v>1334.80985594</v>
+      </c>
+      <c r="E11">
+        <v>546.42578125</v>
+      </c>
+      <c r="F11">
+        <v>1176.6484375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>7.8017981052399996</v>
+      </c>
+      <c r="D12">
+        <v>1342.6116540400001</v>
+      </c>
+      <c r="E12">
+        <v>546.3984375</v>
+      </c>
+      <c r="F12">
+        <v>1176.6171875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1192.6175870899999</v>
+      </c>
+      <c r="D13">
+        <v>1342.6191079600001</v>
+      </c>
+      <c r="E13">
+        <v>546.3984375</v>
+      </c>
+      <c r="F13">
+        <v>1176.6171875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>33.727969884899998</v>
+      </c>
+      <c r="D14">
+        <v>1376.34707785</v>
+      </c>
+      <c r="E14">
+        <v>546.3984375</v>
+      </c>
+      <c r="F14">
+        <v>1176.6171875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>385.74340605700002</v>
+      </c>
+      <c r="D15">
+        <v>1762.0904839</v>
+      </c>
+      <c r="E15">
+        <v>546.42578125</v>
+      </c>
+      <c r="F15">
+        <v>1176.6171875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>2.8085708618199998E-4</v>
+      </c>
+      <c r="D17">
+        <v>2.8085708618199998E-4</v>
+      </c>
+      <c r="E17">
+        <v>17.703125</v>
+      </c>
+      <c r="F17">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>144.88510108</v>
+      </c>
+      <c r="D18">
+        <v>144.88538193700001</v>
+      </c>
+      <c r="E18">
+        <v>112.6015625</v>
+      </c>
+      <c r="F18">
+        <v>257.33203125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>6.3219070434600002E-3</v>
+      </c>
+      <c r="D19">
+        <v>144.89170384400001</v>
+      </c>
+      <c r="E19">
+        <v>112.6015625</v>
+      </c>
+      <c r="F19">
+        <v>257.33203125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>982.93391799899996</v>
+      </c>
+      <c r="D20">
+        <v>1127.8192999400001</v>
+      </c>
+      <c r="E20">
+        <v>755.45703125</v>
+      </c>
+      <c r="F20">
+        <v>1531.890625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>2.4887640476200001</v>
+      </c>
+      <c r="D21">
+        <v>1130.30806398</v>
+      </c>
+      <c r="E21">
+        <v>755.45703125</v>
+      </c>
+      <c r="F21">
+        <v>1531.875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>0.272368907928</v>
+      </c>
+      <c r="D22">
+        <v>1130.5804328900001</v>
+      </c>
+      <c r="E22">
+        <v>755.44140625</v>
+      </c>
+      <c r="F22">
+        <v>1531.859375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>985.689404964</v>
+      </c>
+      <c r="D23">
+        <v>1130.5811088099999</v>
+      </c>
+      <c r="E23">
+        <v>755.44140625</v>
+      </c>
+      <c r="F23">
+        <v>1531.859375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>37.547255992899998</v>
+      </c>
+      <c r="D24">
+        <v>1168.1283648000001</v>
+      </c>
+      <c r="E24">
+        <v>755.4609375</v>
+      </c>
+      <c r="F24">
+        <v>1531.859375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>421.58666801499999</v>
+      </c>
+      <c r="D25">
+        <v>1589.71503282</v>
+      </c>
+      <c r="E25">
+        <v>755.46875</v>
+      </c>
+      <c r="F25">
+        <v>1531.859375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>3.3092498779299998E-4</v>
+      </c>
+      <c r="D27">
+        <v>3.3092498779299998E-4</v>
+      </c>
+      <c r="E27">
+        <v>17.69921875</v>
+      </c>
+      <c r="F27">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>144.91441416699999</v>
+      </c>
+      <c r="D28">
+        <v>144.914745092</v>
+      </c>
+      <c r="E28">
+        <v>112.59765625</v>
+      </c>
+      <c r="F28">
+        <v>257.33203125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>6.9699287414600004E-3</v>
+      </c>
+      <c r="D29">
+        <v>144.92171502100001</v>
+      </c>
+      <c r="E29">
+        <v>112.59765625</v>
+      </c>
+      <c r="F29">
+        <v>257.33203125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>876.05271601699997</v>
+      </c>
+      <c r="D30">
+        <v>1020.96746111</v>
+      </c>
+      <c r="E30">
+        <v>963.90234375</v>
+      </c>
+      <c r="F30">
+        <v>1887.125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>9.1271877288799999E-2</v>
+      </c>
+      <c r="D31">
+        <v>1021.05873299</v>
+      </c>
+      <c r="E31">
+        <v>963.91015625</v>
+      </c>
+      <c r="F31">
+        <v>1887.125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>1.6418170929</v>
+      </c>
+      <c r="D32">
+        <v>1022.70055008</v>
+      </c>
+      <c r="E32">
+        <v>963.89453125</v>
+      </c>
+      <c r="F32">
+        <v>1887.109375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>4.8922469615899997</v>
+      </c>
+      <c r="D33">
+        <v>1027.5927970400001</v>
+      </c>
+      <c r="E33">
+        <v>963.87890625</v>
+      </c>
+      <c r="F33">
+        <v>1887.09375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>882.67173004200004</v>
+      </c>
+      <c r="D34">
+        <v>1027.59344506</v>
+      </c>
+      <c r="E34">
+        <v>963.87890625</v>
+      </c>
+      <c r="F34">
+        <v>1887.09375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>36.160326003999998</v>
+      </c>
+      <c r="D35">
+        <v>1063.7537710700001</v>
+      </c>
+      <c r="E35">
+        <v>963.87890625</v>
+      </c>
+      <c r="F35">
+        <v>1887.09375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>438.46141886700002</v>
+      </c>
+      <c r="D36">
+        <v>1502.21518993</v>
+      </c>
+      <c r="E36">
+        <v>963.90625</v>
+      </c>
+      <c r="F36">
+        <v>1887.09375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>1.92880630493E-4</v>
+      </c>
+      <c r="D38">
+        <v>1.92880630493E-4</v>
+      </c>
+      <c r="E38">
+        <v>17.703125</v>
+      </c>
+      <c r="F38">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>146.40720701199999</v>
+      </c>
+      <c r="D39">
+        <v>146.40739989299999</v>
+      </c>
+      <c r="E39">
+        <v>112.6015625</v>
+      </c>
+      <c r="F39">
+        <v>257.33203125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>2.8932094573999999E-2</v>
+      </c>
+      <c r="D40">
+        <v>146.43633198699999</v>
+      </c>
+      <c r="E40">
+        <v>112.6015625</v>
+      </c>
+      <c r="F40">
+        <v>257.33203125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>832.79557514199996</v>
+      </c>
+      <c r="D41">
+        <v>979.20297503500001</v>
+      </c>
+      <c r="E41">
+        <v>1172.6640625</v>
+      </c>
+      <c r="F41">
+        <v>2242.3515625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>4.3879032135000003E-2</v>
+      </c>
+      <c r="D42">
+        <v>979.24685406699996</v>
+      </c>
+      <c r="E42">
+        <v>1172.66796875</v>
+      </c>
+      <c r="F42">
+        <v>2242.3515625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>5.8293342590300004E-4</v>
+      </c>
+      <c r="D43">
+        <v>979.24743699999999</v>
+      </c>
+      <c r="E43">
+        <v>1172.66796875</v>
+      </c>
+      <c r="F43">
+        <v>2242.3515625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>0.34614086151099999</v>
+      </c>
+      <c r="D44">
+        <v>979.59357786199996</v>
+      </c>
+      <c r="E44">
+        <v>1172.65234375</v>
+      </c>
+      <c r="F44">
+        <v>2242.3359375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>7.5507164001500004E-4</v>
+      </c>
+      <c r="D45">
+        <v>979.59433293300003</v>
+      </c>
+      <c r="E45">
+        <v>1172.65234375</v>
+      </c>
+      <c r="F45">
+        <v>2242.3359375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>833.15858793300004</v>
+      </c>
+      <c r="D46">
+        <v>979.59491992000005</v>
+      </c>
+      <c r="E46">
+        <v>1172.65234375</v>
+      </c>
+      <c r="F46">
+        <v>2242.3359375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>34.1564221382</v>
+      </c>
+      <c r="D47">
+        <v>1013.75134206</v>
+      </c>
+      <c r="E47">
+        <v>1172.65234375</v>
+      </c>
+      <c r="F47">
+        <v>2242.3359375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>448.476294994</v>
+      </c>
+      <c r="D48">
+        <v>1462.2276370500001</v>
+      </c>
+      <c r="E48">
+        <v>1172.6796875</v>
+      </c>
+      <c r="F48">
+        <v>2242.3359375</v>
       </c>
     </row>
   </sheetData>
@@ -458,23 +1703,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +1739,868 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2.9087066650399998E-4</v>
+      </c>
+      <c r="D2">
+        <v>2.9087066650399998E-4</v>
+      </c>
+      <c r="E2">
+        <v>17.69140625</v>
+      </c>
+      <c r="F2">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2.6319670677200002</v>
+      </c>
+      <c r="D3">
+        <v>2.63225793839</v>
+      </c>
+      <c r="E3">
+        <v>115.2890625</v>
+      </c>
+      <c r="F3">
+        <v>262.09375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1858.72492599</v>
+      </c>
+      <c r="D4">
+        <v>1861.35718393</v>
+      </c>
+      <c r="E4">
+        <v>115.50390625</v>
+      </c>
+      <c r="F4">
+        <v>262.2265625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1858.7251849199999</v>
+      </c>
+      <c r="D5">
+        <v>1861.35744286</v>
+      </c>
+      <c r="E5">
+        <v>115.50390625</v>
+      </c>
+      <c r="F5">
+        <v>262.2265625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>525.07429719000004</v>
+      </c>
+      <c r="D6">
+        <v>2386.4317400499999</v>
+      </c>
+      <c r="E6">
+        <v>115.5078125</v>
+      </c>
+      <c r="F6">
+        <v>262.2265625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2.4104118347199999E-4</v>
+      </c>
+      <c r="D8">
+        <v>2.4104118347199999E-4</v>
+      </c>
+      <c r="E8">
+        <v>17.69921875</v>
+      </c>
+      <c r="F8">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.6502389907799999</v>
+      </c>
+      <c r="D9">
+        <v>1.6504800319699999</v>
+      </c>
+      <c r="E9">
+        <v>115.29296875</v>
+      </c>
+      <c r="F9">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2.1600723266600001E-4</v>
+      </c>
+      <c r="D10">
+        <v>1.6506960392000001</v>
+      </c>
+      <c r="E10">
+        <v>115.296875</v>
+      </c>
+      <c r="F10">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1296.1308770200001</v>
+      </c>
+      <c r="D11">
+        <v>1297.78135705</v>
+      </c>
+      <c r="E11">
+        <v>544.4453125</v>
+      </c>
+      <c r="F11">
+        <v>1185.3046875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>7.5101852417000005E-4</v>
+      </c>
+      <c r="D12">
+        <v>1297.78210807</v>
+      </c>
+      <c r="E12">
+        <v>544.4453125</v>
+      </c>
+      <c r="F12">
+        <v>1185.3046875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1296.1318650200001</v>
+      </c>
+      <c r="D13">
+        <v>1297.78256106</v>
+      </c>
+      <c r="E13">
+        <v>544.4453125</v>
+      </c>
+      <c r="F13">
+        <v>1185.3046875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>35.913582086600002</v>
+      </c>
+      <c r="D14">
+        <v>1333.6961431499999</v>
+      </c>
+      <c r="E14">
+        <v>544.4453125</v>
+      </c>
+      <c r="F14">
+        <v>1185.3046875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>546.43232893899994</v>
+      </c>
+      <c r="D15">
+        <v>1880.1284720900001</v>
+      </c>
+      <c r="E15">
+        <v>544.4609375</v>
+      </c>
+      <c r="F15">
+        <v>1185.3046875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3.2019615173299999E-4</v>
+      </c>
+      <c r="D17">
+        <v>3.2019615173299999E-4</v>
+      </c>
+      <c r="E17">
+        <v>17.6953125</v>
+      </c>
+      <c r="F17">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>2.51171994209</v>
+      </c>
+      <c r="D18">
+        <v>2.5120401382400002</v>
+      </c>
+      <c r="E18">
+        <v>115.2890625</v>
+      </c>
+      <c r="F18">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>2.4199485778799999E-4</v>
+      </c>
+      <c r="D19">
+        <v>2.5122821330999998</v>
+      </c>
+      <c r="E19">
+        <v>115.29296875</v>
+      </c>
+      <c r="F19">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1054.9876260799999</v>
+      </c>
+      <c r="D20">
+        <v>1057.49966621</v>
+      </c>
+      <c r="E20">
+        <v>756.50390625</v>
+      </c>
+      <c r="F20">
+        <v>1545.875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>2.0828909873999999</v>
+      </c>
+      <c r="D21">
+        <v>1059.5825572000001</v>
+      </c>
+      <c r="E21">
+        <v>756.484375</v>
+      </c>
+      <c r="F21">
+        <v>1545.84375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>3.8099288940400002E-4</v>
+      </c>
+      <c r="D22">
+        <v>1059.58293819</v>
+      </c>
+      <c r="E22">
+        <v>756.484375</v>
+      </c>
+      <c r="F22">
+        <v>1545.84375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1057.07094598</v>
+      </c>
+      <c r="D23">
+        <v>1059.5832281099999</v>
+      </c>
+      <c r="E23">
+        <v>756.484375</v>
+      </c>
+      <c r="F23">
+        <v>1545.84375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>32.9262480736</v>
+      </c>
+      <c r="D24">
+        <v>1092.5094761800001</v>
+      </c>
+      <c r="E24">
+        <v>756.484375</v>
+      </c>
+      <c r="F24">
+        <v>1545.84375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>555.23942398999998</v>
+      </c>
+      <c r="D25">
+        <v>1647.74890018</v>
+      </c>
+      <c r="E25">
+        <v>756.48828125</v>
+      </c>
+      <c r="F25">
+        <v>1545.84375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>2.2983551025400001E-4</v>
+      </c>
+      <c r="D27">
+        <v>2.2983551025400001E-4</v>
+      </c>
+      <c r="E27">
+        <v>17.69921875</v>
+      </c>
+      <c r="F27">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>1.6211700439500001</v>
+      </c>
+      <c r="D28">
+        <v>1.62139987946</v>
+      </c>
+      <c r="E28">
+        <v>115.29296875</v>
+      </c>
+      <c r="F28">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>2.5296211242700002E-4</v>
+      </c>
+      <c r="D29">
+        <v>1.62165284157</v>
+      </c>
+      <c r="E29">
+        <v>115.296875</v>
+      </c>
+      <c r="F29">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>891.05170393000003</v>
+      </c>
+      <c r="D30">
+        <v>892.67310380900005</v>
+      </c>
+      <c r="E30">
+        <v>968.59375</v>
+      </c>
+      <c r="F30">
+        <v>1906.421875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>4.4512748718300002E-4</v>
+      </c>
+      <c r="D31">
+        <v>892.67354893699996</v>
+      </c>
+      <c r="E31">
+        <v>968.59375</v>
+      </c>
+      <c r="F31">
+        <v>1906.421875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>3.27723097801</v>
+      </c>
+      <c r="D32">
+        <v>895.950779915</v>
+      </c>
+      <c r="E32">
+        <v>968.5625</v>
+      </c>
+      <c r="F32">
+        <v>1906.390625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>7.67946243286E-4</v>
+      </c>
+      <c r="D33">
+        <v>895.95154786099999</v>
+      </c>
+      <c r="E33">
+        <v>968.5625</v>
+      </c>
+      <c r="F33">
+        <v>1906.390625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>894.33054208800002</v>
+      </c>
+      <c r="D34">
+        <v>895.95219492900003</v>
+      </c>
+      <c r="E34">
+        <v>968.5625</v>
+      </c>
+      <c r="F34">
+        <v>1906.390625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>33.463608026499998</v>
+      </c>
+      <c r="D35">
+        <v>929.41580295599999</v>
+      </c>
+      <c r="E35">
+        <v>968.57421875</v>
+      </c>
+      <c r="F35">
+        <v>1906.390625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>511.87103605300001</v>
+      </c>
+      <c r="D36">
+        <v>1441.28683901</v>
+      </c>
+      <c r="E36">
+        <v>968.578125</v>
+      </c>
+      <c r="F36">
+        <v>1906.390625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>3.7312507629400001E-4</v>
+      </c>
+      <c r="D38">
+        <v>3.7312507629400001E-4</v>
+      </c>
+      <c r="E38">
+        <v>17.69921875</v>
+      </c>
+      <c r="F38">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>1.53349280357</v>
+      </c>
+      <c r="D39">
+        <v>1.53386592865</v>
+      </c>
+      <c r="E39">
+        <v>115.29296875</v>
+      </c>
+      <c r="F39">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>2.0217895507799999E-4</v>
+      </c>
+      <c r="D40">
+        <v>1.5340681076</v>
+      </c>
+      <c r="E40">
+        <v>115.296875</v>
+      </c>
+      <c r="F40">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>824.82877421399996</v>
+      </c>
+      <c r="D41">
+        <v>826.36264014200003</v>
+      </c>
+      <c r="E41">
+        <v>1180.6484375</v>
+      </c>
+      <c r="F41">
+        <v>2266.98046875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>5.1417768001599997</v>
+      </c>
+      <c r="D42">
+        <v>831.50441694300002</v>
+      </c>
+      <c r="E42">
+        <v>1180.6015625</v>
+      </c>
+      <c r="F42">
+        <v>2266.93359375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>9.2720985412599998E-4</v>
+      </c>
+      <c r="D43">
+        <v>831.50534415200002</v>
+      </c>
+      <c r="E43">
+        <v>1180.6015625</v>
+      </c>
+      <c r="F43">
+        <v>2266.93359375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>7.2693824768099995E-4</v>
+      </c>
+      <c r="D44">
+        <v>831.50607109099997</v>
+      </c>
+      <c r="E44">
+        <v>1180.6015625</v>
+      </c>
+      <c r="F44">
+        <v>2266.93359375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>7.2383880615199995E-4</v>
+      </c>
+      <c r="D45">
+        <v>831.50679492999996</v>
+      </c>
+      <c r="E45">
+        <v>1180.6015625</v>
+      </c>
+      <c r="F45">
+        <v>2266.93359375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>829.97346687300001</v>
+      </c>
+      <c r="D46">
+        <v>831.50753498100005</v>
+      </c>
+      <c r="E46">
+        <v>1180.6015625</v>
+      </c>
+      <c r="F46">
+        <v>2266.93359375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>34.221680164299997</v>
+      </c>
+      <c r="D47">
+        <v>865.72921514500001</v>
+      </c>
+      <c r="E47">
+        <v>1180.61328125</v>
+      </c>
+      <c r="F47">
+        <v>2266.93359375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>484.60965991</v>
+      </c>
+      <c r="D48">
+        <v>1350.33887506</v>
+      </c>
+      <c r="E48">
+        <v>1180.6171875</v>
+      </c>
+      <c r="F48">
+        <v>2266.93359375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/referee-performance.xlsx
+++ b/data/referee-performance.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12912"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
   </bookViews>
   <sheets>
-    <sheet name="fasta-method-1" sheetId="1" r:id="rId1"/>
-    <sheet name="fasta-method-2" sheetId="2" r:id="rId2"/>
-    <sheet name="fasta-method-3" sheetId="3" r:id="rId3"/>
+    <sheet name="c.elegans-info" sheetId="4" r:id="rId1"/>
+    <sheet name="fasta-method-1" sheetId="1" r:id="rId2"/>
+    <sheet name="fasta-method-2" sheetId="2" r:id="rId3"/>
+    <sheet name="fasta-method-3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="40">
   <si>
     <t>Num procs</t>
   </si>
@@ -72,6 +68,75 @@
   </si>
   <si>
     <t>File 4</t>
+  </si>
+  <si>
+    <t>Scaffolds</t>
+  </si>
+  <si>
+    <t>Bases</t>
+  </si>
+  <si>
+    <t>Mapped sites with ANGSD calcs</t>
+  </si>
+  <si>
+    <t>Sites with ref base N</t>
+  </si>
+  <si>
+    <t>Sites with l_mismatch = 0</t>
+  </si>
+  <si>
+    <t>Mean score</t>
+  </si>
+  <si>
+    <t>SD score</t>
+  </si>
+  <si>
+    <t>Sites where all reads match reference</t>
+  </si>
+  <si>
+    <t>Overlap betwee l_mismatch = 0 and all reads match reference</t>
+  </si>
+  <si>
+    <t>Avg. depth of l_mismatch = 0</t>
+  </si>
+  <si>
+    <t>Avg. depth of all reads match ref</t>
+  </si>
+  <si>
+    <t>Avg. base quality score of l_mismatch = 0</t>
+  </si>
+  <si>
+    <t>Avg. base quality score of all reads match ref</t>
+  </si>
+  <si>
+    <t>Reads file</t>
+  </si>
+  <si>
+    <t>ANGSD command</t>
+  </si>
+  <si>
+    <t>angsd -GL 2 -i mapped-reads/n2_5x_100_180_sorted.bam -ref assembly/rpgc_assembly.fasta -minQ 0 -doGlf 4</t>
+  </si>
+  <si>
+    <t>n2_5x_100_180_sorted.bam</t>
+  </si>
+  <si>
+    <t>Size of reads file</t>
+  </si>
+  <si>
+    <t>419 MB</t>
+  </si>
+  <si>
+    <t>Time to run ANGSD</t>
+  </si>
+  <si>
+    <t>ANGSD genotype likelihood file size (compressed)</t>
+  </si>
+  <si>
+    <t>1.371 GB</t>
+  </si>
+  <si>
+    <t>seconds</t>
   </si>
 </sst>
 </file>
@@ -169,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -204,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,384 +478,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4">
+        <v>750.47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>3</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>3</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>3</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>5</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>99265117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>96250753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>8168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>92891231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>3907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>31.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>16.920000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -802,21 +633,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B48"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -844,19 +675,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>3.7097930908200002E-4</v>
+        <v>2.4485588073700003E-4</v>
       </c>
       <c r="D2">
-        <v>3.7097930908200002E-4</v>
+        <v>2.4485588073700003E-4</v>
       </c>
       <c r="E2">
         <v>17.69921875</v>
       </c>
       <c r="F2">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.546875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -864,19 +695,19 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>188.14811492000001</v>
+        <v>1.72581505775</v>
       </c>
       <c r="D3">
-        <v>188.14848589900001</v>
+        <v>1.7260599136400001</v>
       </c>
       <c r="E3">
-        <v>112.43359375</v>
+        <v>17.7109375</v>
       </c>
       <c r="F3">
-        <v>257.2734375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.546875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -884,19 +715,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1705.8528160999999</v>
+        <v>1625.41227794</v>
       </c>
       <c r="D4">
-        <v>1894.0013019999999</v>
+        <v>1627.13833785</v>
       </c>
       <c r="E4">
-        <v>112.5625</v>
+        <v>22.09765625</v>
       </c>
       <c r="F4">
-        <v>257.2734375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>166.8984375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -904,19 +735,19 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1705.8549380300001</v>
+        <v>1625.41412401</v>
       </c>
       <c r="D5">
-        <v>1894.0034239300001</v>
+        <v>1627.1401839299999</v>
       </c>
       <c r="E5">
-        <v>112.5625</v>
+        <v>22.09765625</v>
       </c>
       <c r="F5">
-        <v>257.2734375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>166.8984375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -924,19 +755,19 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>428.535593033</v>
+        <v>419.92303991300003</v>
       </c>
       <c r="D6">
-        <v>2322.53901696</v>
+        <v>2047.0632238400001</v>
       </c>
       <c r="E6">
-        <v>112.56640625</v>
+        <v>25.2890625</v>
       </c>
       <c r="F6">
-        <v>257.2734375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>170.0859375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -944,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3.4093856811500002E-4</v>
+        <v>3.3783912658699999E-4</v>
       </c>
       <c r="D8">
-        <v>3.4093856811500002E-4</v>
+        <v>3.3783912658699999E-4</v>
       </c>
       <c r="E8">
-        <v>17.6953125</v>
+        <v>17.69921875</v>
       </c>
       <c r="F8">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -964,19 +795,19 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>149.994071007</v>
+        <v>1.50661015511</v>
       </c>
       <c r="D9">
-        <v>149.994411945</v>
+        <v>1.5069479942299999</v>
       </c>
       <c r="E9">
-        <v>112.59375</v>
+        <v>17.7109375</v>
       </c>
       <c r="F9">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -984,19 +815,19 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>7.1089267730700002E-3</v>
+        <v>2.4580955505399999E-4</v>
       </c>
       <c r="D10">
-        <v>150.00152087199999</v>
+        <v>1.5071938037899999</v>
       </c>
       <c r="E10">
-        <v>112.59375</v>
+        <v>17.7109375</v>
       </c>
       <c r="F10">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1004,19 +835,19 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>1184.8154439899999</v>
+        <v>1226.74723887</v>
       </c>
       <c r="D11">
-        <v>1334.80985594</v>
+        <v>1228.25418687</v>
       </c>
       <c r="E11">
-        <v>546.42578125</v>
+        <v>63.26171875</v>
       </c>
       <c r="F11">
-        <v>1176.6484375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>698.7578125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1024,19 +855,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>7.8017981052399996</v>
+        <v>5.6375949382800004</v>
       </c>
       <c r="D12">
-        <v>1342.6116540400001</v>
+        <v>1233.8917818100001</v>
       </c>
       <c r="E12">
-        <v>546.3984375</v>
+        <v>63.26171875</v>
       </c>
       <c r="F12">
-        <v>1176.6171875</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>698.7421875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1044,19 +875,19 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>1192.6175870899999</v>
+        <v>1232.38519406</v>
       </c>
       <c r="D13">
-        <v>1342.6191079600001</v>
+        <v>1233.89238787</v>
       </c>
       <c r="E13">
-        <v>546.3984375</v>
+        <v>63.26171875</v>
       </c>
       <c r="F13">
-        <v>1176.6171875</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>698.7421875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1064,19 +895,19 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>33.727969884899998</v>
+        <v>34.790035963100003</v>
       </c>
       <c r="D14">
-        <v>1376.34707785</v>
+        <v>1268.6824238300001</v>
       </c>
       <c r="E14">
-        <v>546.3984375</v>
+        <v>63.28125</v>
       </c>
       <c r="F14">
-        <v>1176.6171875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>698.7421875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1084,19 +915,19 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>385.74340605700002</v>
+        <v>426.78464293500002</v>
       </c>
       <c r="D15">
-        <v>1762.0904839</v>
+        <v>1695.4670667600001</v>
       </c>
       <c r="E15">
-        <v>546.42578125</v>
+        <v>67.3359375</v>
       </c>
       <c r="F15">
-        <v>1176.6171875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>702.87890625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1104,19 +935,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>2.8085708618199998E-4</v>
+        <v>2.64167785645E-4</v>
       </c>
       <c r="D17">
-        <v>2.8085708618199998E-4</v>
+        <v>2.64167785645E-4</v>
       </c>
       <c r="E17">
-        <v>17.703125</v>
+        <v>17.69921875</v>
       </c>
       <c r="F17">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1124,19 +955,19 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>144.88510108</v>
+        <v>1.0452837944</v>
       </c>
       <c r="D18">
-        <v>144.88538193700001</v>
+        <v>1.0455479621899999</v>
       </c>
       <c r="E18">
-        <v>112.6015625</v>
+        <v>17.7109375</v>
       </c>
       <c r="F18">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1144,19 +975,19 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>6.3219070434600002E-3</v>
+        <v>2.3698806762699999E-4</v>
       </c>
       <c r="D19">
-        <v>144.89170384400001</v>
+        <v>1.0457849502600001</v>
       </c>
       <c r="E19">
-        <v>112.6015625</v>
+        <v>17.7109375</v>
       </c>
       <c r="F19">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1164,19 +995,19 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>982.93391799899996</v>
+        <v>1018.69898915</v>
       </c>
       <c r="D20">
-        <v>1127.8192999400001</v>
+        <v>1019.74453712</v>
       </c>
       <c r="E20">
-        <v>755.45703125</v>
+        <v>81.99609375</v>
       </c>
       <c r="F20">
-        <v>1531.890625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>863.859375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1184,19 +1015,19 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>2.4887640476200001</v>
+        <v>2.8908252716100002E-3</v>
       </c>
       <c r="D21">
-        <v>1130.30806398</v>
+        <v>1019.74742794</v>
       </c>
       <c r="E21">
-        <v>755.45703125</v>
+        <v>82</v>
       </c>
       <c r="F21">
-        <v>1531.875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>863.859375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1204,19 +1035,19 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>0.272368907928</v>
+        <v>6.3419342041000002E-4</v>
       </c>
       <c r="D22">
-        <v>1130.5804328900001</v>
+        <v>1019.74806213</v>
       </c>
       <c r="E22">
-        <v>755.44140625</v>
+        <v>82</v>
       </c>
       <c r="F22">
-        <v>1531.859375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>863.859375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1224,19 +1055,19 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <v>985.689404964</v>
+        <v>1018.70281005</v>
       </c>
       <c r="D23">
-        <v>1130.5811088099999</v>
+        <v>1019.748595</v>
       </c>
       <c r="E23">
-        <v>755.44140625</v>
+        <v>82</v>
       </c>
       <c r="F23">
-        <v>1531.859375</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>863.859375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1244,19 +1075,19 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>37.547255992899998</v>
+        <v>35.115200996399999</v>
       </c>
       <c r="D24">
-        <v>1168.1283648000001</v>
+        <v>1054.8637960000001</v>
       </c>
       <c r="E24">
-        <v>755.4609375</v>
+        <v>82.01953125</v>
       </c>
       <c r="F24">
-        <v>1531.859375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>863.859375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1264,19 +1095,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>421.58666801499999</v>
+        <v>433.80786013599999</v>
       </c>
       <c r="D25">
-        <v>1589.71503282</v>
+        <v>1488.67165613</v>
       </c>
       <c r="E25">
-        <v>755.46875</v>
+        <v>86.07421875</v>
       </c>
       <c r="F25">
-        <v>1531.859375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>867.99609375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1284,19 +1115,19 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>3.3092498779299998E-4</v>
+        <v>2.45094299316E-4</v>
       </c>
       <c r="D27">
-        <v>3.3092498779299998E-4</v>
+        <v>2.45094299316E-4</v>
       </c>
       <c r="E27">
         <v>17.69921875</v>
       </c>
       <c r="F27">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1304,19 +1135,19 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>144.91441416699999</v>
+        <v>1.12865185738</v>
       </c>
       <c r="D28">
-        <v>144.914745092</v>
+        <v>1.12889695168</v>
       </c>
       <c r="E28">
-        <v>112.59765625</v>
+        <v>17.7109375</v>
       </c>
       <c r="F28">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1324,19 +1155,19 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>6.9699287414600004E-3</v>
+        <v>2.2912025451700001E-4</v>
       </c>
       <c r="D29">
-        <v>144.92171502100001</v>
+        <v>1.12912607193</v>
       </c>
       <c r="E29">
-        <v>112.59765625</v>
+        <v>17.7109375</v>
       </c>
       <c r="F29">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1344,19 +1175,19 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>876.05271601699997</v>
+        <v>905.21143603300004</v>
       </c>
       <c r="D30">
-        <v>1020.96746111</v>
+        <v>906.34033298500003</v>
       </c>
       <c r="E30">
-        <v>963.90234375</v>
+        <v>109.5234375</v>
       </c>
       <c r="F30">
-        <v>1887.125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1037.8984375</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1364,19 +1195,19 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>9.1271877288799999E-2</v>
+        <v>1.0311379432700001</v>
       </c>
       <c r="D31">
-        <v>1021.05873299</v>
+        <v>907.37147092800001</v>
       </c>
       <c r="E31">
-        <v>963.91015625</v>
+        <v>101.14453125</v>
       </c>
       <c r="F31">
-        <v>1887.125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1029.38671875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1384,19 +1215,19 @@
         <v>14</v>
       </c>
       <c r="C32">
-        <v>1.6418170929</v>
+        <v>1.27015995979</v>
       </c>
       <c r="D32">
-        <v>1022.70055008</v>
+        <v>908.64163088800001</v>
       </c>
       <c r="E32">
-        <v>963.89453125</v>
+        <v>101.11328125</v>
       </c>
       <c r="F32">
-        <v>1887.109375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1029.35546875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1404,19 +1235,19 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <v>4.8922469615899997</v>
+        <v>8.33988189697E-4</v>
       </c>
       <c r="D33">
-        <v>1027.5927970400001</v>
+        <v>908.64246487599996</v>
       </c>
       <c r="E33">
-        <v>963.87890625</v>
+        <v>101.11328125</v>
       </c>
       <c r="F33">
-        <v>1887.09375</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1029.35546875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1424,19 +1255,19 @@
         <v>13</v>
       </c>
       <c r="C34">
-        <v>882.67173004200004</v>
+        <v>907.51404881500002</v>
       </c>
       <c r="D34">
-        <v>1027.59344506</v>
+        <v>908.64317488699999</v>
       </c>
       <c r="E34">
-        <v>963.87890625</v>
+        <v>101.11328125</v>
       </c>
       <c r="F34">
-        <v>1887.09375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1029.35546875</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1444,19 +1275,19 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>36.160326003999998</v>
+        <v>36.4064772129</v>
       </c>
       <c r="D35">
-        <v>1063.7537710700001</v>
+        <v>945.0496521</v>
       </c>
       <c r="E35">
-        <v>963.87890625</v>
+        <v>101.11328125</v>
       </c>
       <c r="F35">
-        <v>1887.09375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1029.35546875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1464,19 +1295,19 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>438.46141886700002</v>
+        <v>459.58671999000001</v>
       </c>
       <c r="D36">
-        <v>1502.21518993</v>
+        <v>1404.6363720899999</v>
       </c>
       <c r="E36">
-        <v>963.90625</v>
+        <v>105.1953125</v>
       </c>
       <c r="F36">
-        <v>1887.09375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1033.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1484,19 +1315,19 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>1.92880630493E-4</v>
+        <v>2.6702880859400002E-4</v>
       </c>
       <c r="D38">
-        <v>1.92880630493E-4</v>
+        <v>2.6702880859400002E-4</v>
       </c>
       <c r="E38">
-        <v>17.703125</v>
+        <v>17.69921875</v>
       </c>
       <c r="F38">
-        <v>162.4453125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1504,19 +1335,19 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>146.40720701199999</v>
+        <v>1.1677460670499999</v>
       </c>
       <c r="D39">
-        <v>146.40739989299999</v>
+        <v>1.1680130958599999</v>
       </c>
       <c r="E39">
-        <v>112.6015625</v>
+        <v>17.7109375</v>
       </c>
       <c r="F39">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1524,19 +1355,19 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <v>2.8932094573999999E-2</v>
+        <v>2.23875045776E-4</v>
       </c>
       <c r="D40">
-        <v>146.43633198699999</v>
+        <v>1.1682369709</v>
       </c>
       <c r="E40">
-        <v>112.6015625</v>
+        <v>17.7109375</v>
       </c>
       <c r="F40">
-        <v>257.33203125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>162.515625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1544,19 +1375,19 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>832.79557514199996</v>
+        <v>831.30552005799996</v>
       </c>
       <c r="D41">
-        <v>979.20297503500001</v>
+        <v>832.47353315400005</v>
       </c>
       <c r="E41">
-        <v>1172.6640625</v>
+        <v>121.390625</v>
       </c>
       <c r="F41">
-        <v>2242.3515625</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1196.14453125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1564,19 +1395,19 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>4.3879032135000003E-2</v>
+        <v>1.0838508606E-3</v>
       </c>
       <c r="D42">
-        <v>979.24685406699996</v>
+        <v>832.47461700400004</v>
       </c>
       <c r="E42">
-        <v>1172.66796875</v>
+        <v>121.40625</v>
       </c>
       <c r="F42">
-        <v>2242.3515625</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1196.14453125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1584,19 +1415,19 @@
         <v>14</v>
       </c>
       <c r="C43">
-        <v>5.8293342590300004E-4</v>
+        <v>0.38835501670799999</v>
       </c>
       <c r="D43">
-        <v>979.24743699999999</v>
+        <v>832.86297202100002</v>
       </c>
       <c r="E43">
-        <v>1172.66796875</v>
+        <v>121.40625</v>
       </c>
       <c r="F43">
-        <v>2242.3515625</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1196.14453125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1604,19 +1435,19 @@
         <v>15</v>
       </c>
       <c r="C44">
-        <v>0.34614086151099999</v>
+        <v>5.5098533630399999E-4</v>
       </c>
       <c r="D44">
-        <v>979.59357786199996</v>
+        <v>832.86352300600004</v>
       </c>
       <c r="E44">
-        <v>1172.65234375</v>
+        <v>121.40625</v>
       </c>
       <c r="F44">
-        <v>2242.3359375</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1196.14453125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1624,19 +1455,19 @@
         <v>16</v>
       </c>
       <c r="C45">
-        <v>7.5507164001500004E-4</v>
+        <v>4.3702125549300002E-4</v>
       </c>
       <c r="D45">
-        <v>979.59433293300003</v>
+        <v>832.86396002799995</v>
       </c>
       <c r="E45">
-        <v>1172.65234375</v>
+        <v>121.40625</v>
       </c>
       <c r="F45">
-        <v>2242.3359375</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1196.14453125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1644,19 +1475,19 @@
         <v>13</v>
       </c>
       <c r="C46">
-        <v>833.15858793300004</v>
+        <v>831.69616913799996</v>
       </c>
       <c r="D46">
-        <v>979.59491992000005</v>
+        <v>832.86440610900002</v>
       </c>
       <c r="E46">
-        <v>1172.65234375</v>
+        <v>121.40625</v>
       </c>
       <c r="F46">
-        <v>2242.3359375</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1196.14453125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1664,19 +1495,19 @@
         <v>9</v>
       </c>
       <c r="C47">
-        <v>34.1564221382</v>
+        <v>35.2652778625</v>
       </c>
       <c r="D47">
-        <v>1013.75134206</v>
+        <v>868.12968397099996</v>
       </c>
       <c r="E47">
-        <v>1172.65234375</v>
+        <v>121.42578125</v>
       </c>
       <c r="F47">
-        <v>2242.3359375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1196.14453125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1684,20 +1515,21 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>448.476294994</v>
+        <v>443.77993512199998</v>
       </c>
       <c r="D48">
-        <v>1462.2276370500001</v>
+        <v>1311.90961909</v>
       </c>
       <c r="E48">
-        <v>1172.6796875</v>
+        <v>125.48828125</v>
       </c>
       <c r="F48">
-        <v>2242.3359375</v>
+        <v>1200.2890625</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1705,18 +1537,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1747,13 +1579,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2.9087066650399998E-4</v>
+        <v>3.7097930908200002E-4</v>
       </c>
       <c r="D2">
-        <v>2.9087066650399998E-4</v>
+        <v>3.7097930908200002E-4</v>
       </c>
       <c r="E2">
-        <v>17.69140625</v>
+        <v>17.69921875</v>
       </c>
       <c r="F2">
         <v>162.4453125</v>
@@ -1767,16 +1599,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>2.6319670677200002</v>
+        <v>188.14811492000001</v>
       </c>
       <c r="D3">
-        <v>2.63225793839</v>
+        <v>188.14848589900001</v>
       </c>
       <c r="E3">
-        <v>115.2890625</v>
+        <v>112.43359375</v>
       </c>
       <c r="F3">
-        <v>262.09375</v>
+        <v>257.2734375</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1787,16 +1619,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1858.72492599</v>
+        <v>1705.8528160999999</v>
       </c>
       <c r="D4">
-        <v>1861.35718393</v>
+        <v>1894.0013019999999</v>
       </c>
       <c r="E4">
-        <v>115.50390625</v>
+        <v>112.5625</v>
       </c>
       <c r="F4">
-        <v>262.2265625</v>
+        <v>257.2734375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1807,16 +1639,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>1858.7251849199999</v>
+        <v>1705.8549380300001</v>
       </c>
       <c r="D5">
-        <v>1861.35744286</v>
+        <v>1894.0034239300001</v>
       </c>
       <c r="E5">
-        <v>115.50390625</v>
+        <v>112.5625</v>
       </c>
       <c r="F5">
-        <v>262.2265625</v>
+        <v>257.2734375</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1827,16 +1659,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>525.07429719000004</v>
+        <v>428.535593033</v>
       </c>
       <c r="D6">
-        <v>2386.4317400499999</v>
+        <v>2322.53901696</v>
       </c>
       <c r="E6">
-        <v>115.5078125</v>
+        <v>112.56640625</v>
       </c>
       <c r="F6">
-        <v>262.2265625</v>
+        <v>257.2734375</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1847,13 +1679,13 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2.4104118347199999E-4</v>
+        <v>3.4093856811500002E-4</v>
       </c>
       <c r="D8">
-        <v>2.4104118347199999E-4</v>
+        <v>3.4093856811500002E-4</v>
       </c>
       <c r="E8">
-        <v>17.69921875</v>
+        <v>17.6953125</v>
       </c>
       <c r="F8">
         <v>162.4453125</v>
@@ -1867,16 +1699,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.6502389907799999</v>
+        <v>149.994071007</v>
       </c>
       <c r="D9">
-        <v>1.6504800319699999</v>
+        <v>149.994411945</v>
       </c>
       <c r="E9">
-        <v>115.29296875</v>
+        <v>112.59375</v>
       </c>
       <c r="F9">
-        <v>261.9765625</v>
+        <v>257.33203125</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1887,16 +1719,16 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>2.1600723266600001E-4</v>
+        <v>7.1089267730700002E-3</v>
       </c>
       <c r="D10">
-        <v>1.6506960392000001</v>
+        <v>150.00152087199999</v>
       </c>
       <c r="E10">
-        <v>115.296875</v>
+        <v>112.59375</v>
       </c>
       <c r="F10">
-        <v>261.9765625</v>
+        <v>257.33203125</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1907,16 +1739,16 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>1296.1308770200001</v>
+        <v>1184.8154439899999</v>
       </c>
       <c r="D11">
-        <v>1297.78135705</v>
+        <v>1334.80985594</v>
       </c>
       <c r="E11">
-        <v>544.4453125</v>
+        <v>546.42578125</v>
       </c>
       <c r="F11">
-        <v>1185.3046875</v>
+        <v>1176.6484375</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1927,16 +1759,16 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>7.5101852417000005E-4</v>
+        <v>7.8017981052399996</v>
       </c>
       <c r="D12">
-        <v>1297.78210807</v>
+        <v>1342.6116540400001</v>
       </c>
       <c r="E12">
-        <v>544.4453125</v>
+        <v>546.3984375</v>
       </c>
       <c r="F12">
-        <v>1185.3046875</v>
+        <v>1176.6171875</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1947,16 +1779,16 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>1296.1318650200001</v>
+        <v>1192.6175870899999</v>
       </c>
       <c r="D13">
-        <v>1297.78256106</v>
+        <v>1342.6191079600001</v>
       </c>
       <c r="E13">
-        <v>544.4453125</v>
+        <v>546.3984375</v>
       </c>
       <c r="F13">
-        <v>1185.3046875</v>
+        <v>1176.6171875</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1967,16 +1799,16 @@
         <v>9</v>
       </c>
       <c r="C14">
-        <v>35.913582086600002</v>
+        <v>33.727969884899998</v>
       </c>
       <c r="D14">
-        <v>1333.6961431499999</v>
+        <v>1376.34707785</v>
       </c>
       <c r="E14">
-        <v>544.4453125</v>
+        <v>546.3984375</v>
       </c>
       <c r="F14">
-        <v>1185.3046875</v>
+        <v>1176.6171875</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1987,16 +1819,16 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>546.43232893899994</v>
+        <v>385.74340605700002</v>
       </c>
       <c r="D15">
-        <v>1880.1284720900001</v>
+        <v>1762.0904839</v>
       </c>
       <c r="E15">
-        <v>544.4609375</v>
+        <v>546.42578125</v>
       </c>
       <c r="F15">
-        <v>1185.3046875</v>
+        <v>1176.6171875</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2007,13 +1839,13 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>3.2019615173299999E-4</v>
+        <v>2.8085708618199998E-4</v>
       </c>
       <c r="D17">
-        <v>3.2019615173299999E-4</v>
+        <v>2.8085708618199998E-4</v>
       </c>
       <c r="E17">
-        <v>17.6953125</v>
+        <v>17.703125</v>
       </c>
       <c r="F17">
         <v>162.4453125</v>
@@ -2027,16 +1859,16 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>2.51171994209</v>
+        <v>144.88510108</v>
       </c>
       <c r="D18">
-        <v>2.5120401382400002</v>
+        <v>144.88538193700001</v>
       </c>
       <c r="E18">
-        <v>115.2890625</v>
+        <v>112.6015625</v>
       </c>
       <c r="F18">
-        <v>261.9765625</v>
+        <v>257.33203125</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2047,16 +1879,16 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>2.4199485778799999E-4</v>
+        <v>6.3219070434600002E-3</v>
       </c>
       <c r="D19">
-        <v>2.5122821330999998</v>
+        <v>144.89170384400001</v>
       </c>
       <c r="E19">
-        <v>115.29296875</v>
+        <v>112.6015625</v>
       </c>
       <c r="F19">
-        <v>261.9765625</v>
+        <v>257.33203125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2067,16 +1899,16 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>1054.9876260799999</v>
+        <v>982.93391799899996</v>
       </c>
       <c r="D20">
-        <v>1057.49966621</v>
+        <v>1127.8192999400001</v>
       </c>
       <c r="E20">
-        <v>756.50390625</v>
+        <v>755.45703125</v>
       </c>
       <c r="F20">
-        <v>1545.875</v>
+        <v>1531.890625</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2087,16 +1919,16 @@
         <v>8</v>
       </c>
       <c r="C21">
-        <v>2.0828909873999999</v>
+        <v>2.4887640476200001</v>
       </c>
       <c r="D21">
-        <v>1059.5825572000001</v>
+        <v>1130.30806398</v>
       </c>
       <c r="E21">
-        <v>756.484375</v>
+        <v>755.45703125</v>
       </c>
       <c r="F21">
-        <v>1545.84375</v>
+        <v>1531.875</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2107,16 +1939,16 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>3.8099288940400002E-4</v>
+        <v>0.272368907928</v>
       </c>
       <c r="D22">
-        <v>1059.58293819</v>
+        <v>1130.5804328900001</v>
       </c>
       <c r="E22">
-        <v>756.484375</v>
+        <v>755.44140625</v>
       </c>
       <c r="F22">
-        <v>1545.84375</v>
+        <v>1531.859375</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -2127,16 +1959,16 @@
         <v>13</v>
       </c>
       <c r="C23">
-        <v>1057.07094598</v>
+        <v>985.689404964</v>
       </c>
       <c r="D23">
-        <v>1059.5832281099999</v>
+        <v>1130.5811088099999</v>
       </c>
       <c r="E23">
-        <v>756.484375</v>
+        <v>755.44140625</v>
       </c>
       <c r="F23">
-        <v>1545.84375</v>
+        <v>1531.859375</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2147,16 +1979,16 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>32.9262480736</v>
+        <v>37.547255992899998</v>
       </c>
       <c r="D24">
-        <v>1092.5094761800001</v>
+        <v>1168.1283648000001</v>
       </c>
       <c r="E24">
-        <v>756.484375</v>
+        <v>755.4609375</v>
       </c>
       <c r="F24">
-        <v>1545.84375</v>
+        <v>1531.859375</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -2167,16 +1999,16 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>555.23942398999998</v>
+        <v>421.58666801499999</v>
       </c>
       <c r="D25">
-        <v>1647.74890018</v>
+        <v>1589.71503282</v>
       </c>
       <c r="E25">
-        <v>756.48828125</v>
+        <v>755.46875</v>
       </c>
       <c r="F25">
-        <v>1545.84375</v>
+        <v>1531.859375</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2187,10 +2019,10 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>2.2983551025400001E-4</v>
+        <v>3.3092498779299998E-4</v>
       </c>
       <c r="D27">
-        <v>2.2983551025400001E-4</v>
+        <v>3.3092498779299998E-4</v>
       </c>
       <c r="E27">
         <v>17.69921875</v>
@@ -2207,16 +2039,16 @@
         <v>7</v>
       </c>
       <c r="C28">
-        <v>1.6211700439500001</v>
+        <v>144.91441416699999</v>
       </c>
       <c r="D28">
-        <v>1.62139987946</v>
+        <v>144.914745092</v>
       </c>
       <c r="E28">
-        <v>115.29296875</v>
+        <v>112.59765625</v>
       </c>
       <c r="F28">
-        <v>261.9765625</v>
+        <v>257.33203125</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2227,16 +2059,16 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>2.5296211242700002E-4</v>
+        <v>6.9699287414600004E-3</v>
       </c>
       <c r="D29">
-        <v>1.62165284157</v>
+        <v>144.92171502100001</v>
       </c>
       <c r="E29">
-        <v>115.296875</v>
+        <v>112.59765625</v>
       </c>
       <c r="F29">
-        <v>261.9765625</v>
+        <v>257.33203125</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2247,16 +2079,16 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>891.05170393000003</v>
+        <v>876.05271601699997</v>
       </c>
       <c r="D30">
-        <v>892.67310380900005</v>
+        <v>1020.96746111</v>
       </c>
       <c r="E30">
-        <v>968.59375</v>
+        <v>963.90234375</v>
       </c>
       <c r="F30">
-        <v>1906.421875</v>
+        <v>1887.125</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2267,16 +2099,16 @@
         <v>8</v>
       </c>
       <c r="C31">
-        <v>4.4512748718300002E-4</v>
+        <v>9.1271877288799999E-2</v>
       </c>
       <c r="D31">
-        <v>892.67354893699996</v>
+        <v>1021.05873299</v>
       </c>
       <c r="E31">
-        <v>968.59375</v>
+        <v>963.91015625</v>
       </c>
       <c r="F31">
-        <v>1906.421875</v>
+        <v>1887.125</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2287,16 +2119,16 @@
         <v>14</v>
       </c>
       <c r="C32">
-        <v>3.27723097801</v>
+        <v>1.6418170929</v>
       </c>
       <c r="D32">
-        <v>895.950779915</v>
+        <v>1022.70055008</v>
       </c>
       <c r="E32">
-        <v>968.5625</v>
+        <v>963.89453125</v>
       </c>
       <c r="F32">
-        <v>1906.390625</v>
+        <v>1887.109375</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2307,16 +2139,16 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <v>7.67946243286E-4</v>
+        <v>4.8922469615899997</v>
       </c>
       <c r="D33">
-        <v>895.95154786099999</v>
+        <v>1027.5927970400001</v>
       </c>
       <c r="E33">
-        <v>968.5625</v>
+        <v>963.87890625</v>
       </c>
       <c r="F33">
-        <v>1906.390625</v>
+        <v>1887.09375</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2327,16 +2159,16 @@
         <v>13</v>
       </c>
       <c r="C34">
-        <v>894.33054208800002</v>
+        <v>882.67173004200004</v>
       </c>
       <c r="D34">
-        <v>895.95219492900003</v>
+        <v>1027.59344506</v>
       </c>
       <c r="E34">
-        <v>968.5625</v>
+        <v>963.87890625</v>
       </c>
       <c r="F34">
-        <v>1906.390625</v>
+        <v>1887.09375</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2347,16 +2179,16 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>33.463608026499998</v>
+        <v>36.160326003999998</v>
       </c>
       <c r="D35">
-        <v>929.41580295599999</v>
+        <v>1063.7537710700001</v>
       </c>
       <c r="E35">
-        <v>968.57421875</v>
+        <v>963.87890625</v>
       </c>
       <c r="F35">
-        <v>1906.390625</v>
+        <v>1887.09375</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2367,6 +2199,909 @@
         <v>10</v>
       </c>
       <c r="C36">
+        <v>438.46141886700002</v>
+      </c>
+      <c r="D36">
+        <v>1502.21518993</v>
+      </c>
+      <c r="E36">
+        <v>963.90625</v>
+      </c>
+      <c r="F36">
+        <v>1887.09375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>1.92880630493E-4</v>
+      </c>
+      <c r="D38">
+        <v>1.92880630493E-4</v>
+      </c>
+      <c r="E38">
+        <v>17.703125</v>
+      </c>
+      <c r="F38">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>146.40720701199999</v>
+      </c>
+      <c r="D39">
+        <v>146.40739989299999</v>
+      </c>
+      <c r="E39">
+        <v>112.6015625</v>
+      </c>
+      <c r="F39">
+        <v>257.33203125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>2.8932094573999999E-2</v>
+      </c>
+      <c r="D40">
+        <v>146.43633198699999</v>
+      </c>
+      <c r="E40">
+        <v>112.6015625</v>
+      </c>
+      <c r="F40">
+        <v>257.33203125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41">
+        <v>832.79557514199996</v>
+      </c>
+      <c r="D41">
+        <v>979.20297503500001</v>
+      </c>
+      <c r="E41">
+        <v>1172.6640625</v>
+      </c>
+      <c r="F41">
+        <v>2242.3515625</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>4.3879032135000003E-2</v>
+      </c>
+      <c r="D42">
+        <v>979.24685406699996</v>
+      </c>
+      <c r="E42">
+        <v>1172.66796875</v>
+      </c>
+      <c r="F42">
+        <v>2242.3515625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>5.8293342590300004E-4</v>
+      </c>
+      <c r="D43">
+        <v>979.24743699999999</v>
+      </c>
+      <c r="E43">
+        <v>1172.66796875</v>
+      </c>
+      <c r="F43">
+        <v>2242.3515625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>0.34614086151099999</v>
+      </c>
+      <c r="D44">
+        <v>979.59357786199996</v>
+      </c>
+      <c r="E44">
+        <v>1172.65234375</v>
+      </c>
+      <c r="F44">
+        <v>2242.3359375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>7.5507164001500004E-4</v>
+      </c>
+      <c r="D45">
+        <v>979.59433293300003</v>
+      </c>
+      <c r="E45">
+        <v>1172.65234375</v>
+      </c>
+      <c r="F45">
+        <v>2242.3359375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>833.15858793300004</v>
+      </c>
+      <c r="D46">
+        <v>979.59491992000005</v>
+      </c>
+      <c r="E46">
+        <v>1172.65234375</v>
+      </c>
+      <c r="F46">
+        <v>2242.3359375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>34.1564221382</v>
+      </c>
+      <c r="D47">
+        <v>1013.75134206</v>
+      </c>
+      <c r="E47">
+        <v>1172.65234375</v>
+      </c>
+      <c r="F47">
+        <v>2242.3359375</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>448.476294994</v>
+      </c>
+      <c r="D48">
+        <v>1462.2276370500001</v>
+      </c>
+      <c r="E48">
+        <v>1172.6796875</v>
+      </c>
+      <c r="F48">
+        <v>2242.3359375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2.9087066650399998E-4</v>
+      </c>
+      <c r="D2">
+        <v>2.9087066650399998E-4</v>
+      </c>
+      <c r="E2">
+        <v>17.69140625</v>
+      </c>
+      <c r="F2">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2.6319670677200002</v>
+      </c>
+      <c r="D3">
+        <v>2.63225793839</v>
+      </c>
+      <c r="E3">
+        <v>115.2890625</v>
+      </c>
+      <c r="F3">
+        <v>262.09375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1858.72492599</v>
+      </c>
+      <c r="D4">
+        <v>1861.35718393</v>
+      </c>
+      <c r="E4">
+        <v>115.50390625</v>
+      </c>
+      <c r="F4">
+        <v>262.2265625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1858.7251849199999</v>
+      </c>
+      <c r="D5">
+        <v>1861.35744286</v>
+      </c>
+      <c r="E5">
+        <v>115.50390625</v>
+      </c>
+      <c r="F5">
+        <v>262.2265625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>525.07429719000004</v>
+      </c>
+      <c r="D6">
+        <v>2386.4317400499999</v>
+      </c>
+      <c r="E6">
+        <v>115.5078125</v>
+      </c>
+      <c r="F6">
+        <v>262.2265625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>2.4104118347199999E-4</v>
+      </c>
+      <c r="D8">
+        <v>2.4104118347199999E-4</v>
+      </c>
+      <c r="E8">
+        <v>17.69921875</v>
+      </c>
+      <c r="F8">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1.6502389907799999</v>
+      </c>
+      <c r="D9">
+        <v>1.6504800319699999</v>
+      </c>
+      <c r="E9">
+        <v>115.29296875</v>
+      </c>
+      <c r="F9">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>2.1600723266600001E-4</v>
+      </c>
+      <c r="D10">
+        <v>1.6506960392000001</v>
+      </c>
+      <c r="E10">
+        <v>115.296875</v>
+      </c>
+      <c r="F10">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1296.1308770200001</v>
+      </c>
+      <c r="D11">
+        <v>1297.78135705</v>
+      </c>
+      <c r="E11">
+        <v>544.4453125</v>
+      </c>
+      <c r="F11">
+        <v>1185.3046875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>7.5101852417000005E-4</v>
+      </c>
+      <c r="D12">
+        <v>1297.78210807</v>
+      </c>
+      <c r="E12">
+        <v>544.4453125</v>
+      </c>
+      <c r="F12">
+        <v>1185.3046875</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>1296.1318650200001</v>
+      </c>
+      <c r="D13">
+        <v>1297.78256106</v>
+      </c>
+      <c r="E13">
+        <v>544.4453125</v>
+      </c>
+      <c r="F13">
+        <v>1185.3046875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>35.913582086600002</v>
+      </c>
+      <c r="D14">
+        <v>1333.6961431499999</v>
+      </c>
+      <c r="E14">
+        <v>544.4453125</v>
+      </c>
+      <c r="F14">
+        <v>1185.3046875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>546.43232893899994</v>
+      </c>
+      <c r="D15">
+        <v>1880.1284720900001</v>
+      </c>
+      <c r="E15">
+        <v>544.4609375</v>
+      </c>
+      <c r="F15">
+        <v>1185.3046875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3.2019615173299999E-4</v>
+      </c>
+      <c r="D17">
+        <v>3.2019615173299999E-4</v>
+      </c>
+      <c r="E17">
+        <v>17.6953125</v>
+      </c>
+      <c r="F17">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>2.51171994209</v>
+      </c>
+      <c r="D18">
+        <v>2.5120401382400002</v>
+      </c>
+      <c r="E18">
+        <v>115.2890625</v>
+      </c>
+      <c r="F18">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>2.4199485778799999E-4</v>
+      </c>
+      <c r="D19">
+        <v>2.5122821330999998</v>
+      </c>
+      <c r="E19">
+        <v>115.29296875</v>
+      </c>
+      <c r="F19">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>1054.9876260799999</v>
+      </c>
+      <c r="D20">
+        <v>1057.49966621</v>
+      </c>
+      <c r="E20">
+        <v>756.50390625</v>
+      </c>
+      <c r="F20">
+        <v>1545.875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>2.0828909873999999</v>
+      </c>
+      <c r="D21">
+        <v>1059.5825572000001</v>
+      </c>
+      <c r="E21">
+        <v>756.484375</v>
+      </c>
+      <c r="F21">
+        <v>1545.84375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>3.8099288940400002E-4</v>
+      </c>
+      <c r="D22">
+        <v>1059.58293819</v>
+      </c>
+      <c r="E22">
+        <v>756.484375</v>
+      </c>
+      <c r="F22">
+        <v>1545.84375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1057.07094598</v>
+      </c>
+      <c r="D23">
+        <v>1059.5832281099999</v>
+      </c>
+      <c r="E23">
+        <v>756.484375</v>
+      </c>
+      <c r="F23">
+        <v>1545.84375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>32.9262480736</v>
+      </c>
+      <c r="D24">
+        <v>1092.5094761800001</v>
+      </c>
+      <c r="E24">
+        <v>756.484375</v>
+      </c>
+      <c r="F24">
+        <v>1545.84375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>555.23942398999998</v>
+      </c>
+      <c r="D25">
+        <v>1647.74890018</v>
+      </c>
+      <c r="E25">
+        <v>756.48828125</v>
+      </c>
+      <c r="F25">
+        <v>1545.84375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>2.2983551025400001E-4</v>
+      </c>
+      <c r="D27">
+        <v>2.2983551025400001E-4</v>
+      </c>
+      <c r="E27">
+        <v>17.69921875</v>
+      </c>
+      <c r="F27">
+        <v>162.4453125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>1.6211700439500001</v>
+      </c>
+      <c r="D28">
+        <v>1.62139987946</v>
+      </c>
+      <c r="E28">
+        <v>115.29296875</v>
+      </c>
+      <c r="F28">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>2.5296211242700002E-4</v>
+      </c>
+      <c r="D29">
+        <v>1.62165284157</v>
+      </c>
+      <c r="E29">
+        <v>115.296875</v>
+      </c>
+      <c r="F29">
+        <v>261.9765625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>891.05170393000003</v>
+      </c>
+      <c r="D30">
+        <v>892.67310380900005</v>
+      </c>
+      <c r="E30">
+        <v>968.59375</v>
+      </c>
+      <c r="F30">
+        <v>1906.421875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>4.4512748718300002E-4</v>
+      </c>
+      <c r="D31">
+        <v>892.67354893699996</v>
+      </c>
+      <c r="E31">
+        <v>968.59375</v>
+      </c>
+      <c r="F31">
+        <v>1906.421875</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32">
+        <v>3.27723097801</v>
+      </c>
+      <c r="D32">
+        <v>895.950779915</v>
+      </c>
+      <c r="E32">
+        <v>968.5625</v>
+      </c>
+      <c r="F32">
+        <v>1906.390625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <v>7.67946243286E-4</v>
+      </c>
+      <c r="D33">
+        <v>895.95154786099999</v>
+      </c>
+      <c r="E33">
+        <v>968.5625</v>
+      </c>
+      <c r="F33">
+        <v>1906.390625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>894.33054208800002</v>
+      </c>
+      <c r="D34">
+        <v>895.95219492900003</v>
+      </c>
+      <c r="E34">
+        <v>968.5625</v>
+      </c>
+      <c r="F34">
+        <v>1906.390625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>33.463608026499998</v>
+      </c>
+      <c r="D35">
+        <v>929.41580295599999</v>
+      </c>
+      <c r="E35">
+        <v>968.57421875</v>
+      </c>
+      <c r="F35">
+        <v>1906.390625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
         <v>511.87103605300001</v>
       </c>
       <c r="D36">
@@ -2379,7 +3114,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -2399,7 +3134,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -2419,7 +3154,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2439,7 +3174,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -2459,7 +3194,7 @@
         <v>2266.98046875</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -2479,7 +3214,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
@@ -2499,7 +3234,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
@@ -2519,7 +3254,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
@@ -2539,7 +3274,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
@@ -2559,7 +3294,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
@@ -2579,7 +3314,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>

--- a/data/referee-performance.xlsx
+++ b/data/referee-performance.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bin\referee\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12912"/>
   </bookViews>
   <sheets>
     <sheet name="c.elegans-info" sheetId="4" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="42">
   <si>
     <t>Num procs</t>
   </si>
@@ -137,6 +142,12 @@
   </si>
   <si>
     <t>seconds</t>
+  </si>
+  <si>
+    <t>Avg. depth of all sites</t>
+  </si>
+  <si>
+    <t>Avg. base quality of all sites</t>
   </si>
 </sst>
 </file>
@@ -234,7 +245,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,18 +489,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -497,7 +508,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -505,7 +516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -513,7 +524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -524,7 +535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -532,7 +543,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -540,7 +551,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -548,7 +559,7 @@
         <v>99265117</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -556,7 +567,7 @@
         <v>96250753</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -564,7 +575,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -572,7 +583,7 @@
         <v>8168</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -580,7 +591,7 @@
         <v>92891231</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -588,7 +599,7 @@
         <v>3907</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -596,7 +607,7 @@
         <v>31.45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -604,24 +615,52 @@
         <v>16.920000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>5.0196625459600002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>90.834476003899994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>4.9394561258399996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>58.537063336099997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21">
+        <v>56.778786187000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>29</v>
+      </c>
+      <c r="B22">
+        <v>58.860882534600002</v>
       </c>
     </row>
   </sheetData>
@@ -637,17 +676,17 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -687,7 +726,7 @@
         <v>162.546875</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -707,7 +746,7 @@
         <v>162.546875</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -727,7 +766,7 @@
         <v>166.8984375</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -747,7 +786,7 @@
         <v>166.8984375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -767,7 +806,7 @@
         <v>170.0859375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -787,7 +826,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -807,7 +846,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -827,7 +866,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -847,7 +886,7 @@
         <v>698.7578125</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -867,7 +906,7 @@
         <v>698.7421875</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -887,7 +926,7 @@
         <v>698.7421875</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -907,7 +946,7 @@
         <v>698.7421875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -927,7 +966,7 @@
         <v>702.87890625</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -947,7 +986,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -967,7 +1006,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -987,7 +1026,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1007,7 +1046,7 @@
         <v>863.859375</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1027,7 +1066,7 @@
         <v>863.859375</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1047,7 +1086,7 @@
         <v>863.859375</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1067,7 +1106,7 @@
         <v>863.859375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1087,7 +1126,7 @@
         <v>863.859375</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1107,7 +1146,7 @@
         <v>867.99609375</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1127,7 +1166,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1147,7 +1186,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1167,7 +1206,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -1187,7 +1226,7 @@
         <v>1037.8984375</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1207,7 +1246,7 @@
         <v>1029.38671875</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1227,7 +1266,7 @@
         <v>1029.35546875</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1247,7 +1286,7 @@
         <v>1029.35546875</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -1267,7 +1306,7 @@
         <v>1029.35546875</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -1287,7 +1326,7 @@
         <v>1029.35546875</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1307,7 +1346,7 @@
         <v>1033.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1327,7 +1366,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1347,7 +1386,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1367,7 +1406,7 @@
         <v>162.515625</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1387,7 +1426,7 @@
         <v>1196.14453125</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1407,7 +1446,7 @@
         <v>1196.14453125</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1427,7 +1466,7 @@
         <v>1196.14453125</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1447,7 +1486,7 @@
         <v>1196.14453125</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1467,7 +1506,7 @@
         <v>1196.14453125</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1487,7 +1526,7 @@
         <v>1196.14453125</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1507,7 +1546,7 @@
         <v>1196.14453125</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1541,14 +1580,14 @@
       <selection activeCell="A2" sqref="A2:B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2444,17 +2483,17 @@
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2474,7 +2513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2494,7 +2533,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2514,7 +2553,7 @@
         <v>262.09375</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2534,7 +2573,7 @@
         <v>262.2265625</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2554,7 +2593,7 @@
         <v>262.2265625</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2574,7 +2613,7 @@
         <v>262.2265625</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2594,7 +2633,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2614,7 +2653,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2634,7 +2673,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2654,7 +2693,7 @@
         <v>1185.3046875</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2674,7 +2713,7 @@
         <v>1185.3046875</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2694,7 +2733,7 @@
         <v>1185.3046875</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2714,7 +2753,7 @@
         <v>1185.3046875</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2734,7 +2773,7 @@
         <v>1185.3046875</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -2754,7 +2793,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -2774,7 +2813,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2794,7 +2833,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2814,7 +2853,7 @@
         <v>1545.875</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2834,7 +2873,7 @@
         <v>1545.84375</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2854,7 +2893,7 @@
         <v>1545.84375</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2874,7 +2913,7 @@
         <v>1545.84375</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2894,7 +2933,7 @@
         <v>1545.84375</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2914,7 +2953,7 @@
         <v>1545.84375</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -2934,7 +2973,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -2954,7 +2993,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -2974,7 +3013,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -2994,7 +3033,7 @@
         <v>1906.421875</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3014,7 +3053,7 @@
         <v>1906.421875</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3034,7 +3073,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3054,7 +3093,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3074,7 +3113,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3094,7 +3133,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3114,7 +3153,7 @@
         <v>1906.390625</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -3134,7 +3173,7 @@
         <v>162.4453125</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>5</v>
       </c>
@@ -3154,7 +3193,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>5</v>
       </c>
@@ -3174,7 +3213,7 @@
         <v>261.9765625</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>5</v>
       </c>
@@ -3194,7 +3233,7 @@
         <v>2266.98046875</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5</v>
       </c>
@@ -3214,7 +3253,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -3234,7 +3273,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>5</v>
       </c>
@@ -3254,7 +3293,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>5</v>
       </c>
@@ -3274,7 +3313,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>5</v>
       </c>
@@ -3294,7 +3333,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>5</v>
       </c>
@@ -3314,7 +3353,7 @@
         <v>2266.93359375</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
